--- a/test_student_perday.xlsx
+++ b/test_student_perday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\attendenceUtility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA46E8D-80A7-4C8C-AFDF-B7A9E7B28AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E21363-7AFB-41A2-8B6C-572971090016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1068" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,22 +30,22 @@
     <t>ID</t>
   </si>
   <si>
-    <t>21BCB001</t>
-  </si>
-  <si>
-    <t>21BCB002</t>
-  </si>
-  <si>
-    <t>21BCB004</t>
-  </si>
-  <si>
-    <t>21BCB005</t>
-  </si>
-  <si>
-    <t>21BCB006</t>
-  </si>
-  <si>
-    <t>21BCB007</t>
+    <t>BC001</t>
+  </si>
+  <si>
+    <t>BC002</t>
+  </si>
+  <si>
+    <t>BC003</t>
+  </si>
+  <si>
+    <t>ZX022</t>
+  </si>
+  <si>
+    <t>YW050</t>
+  </si>
+  <si>
+    <t>BC016</t>
   </si>
 </sst>
 </file>
